--- a/bioprojects/termite_PRJNA309979/SraRunTable.xlsx
+++ b/bioprojects/termite_PRJNA309979/SraRunTable.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/gbm_and_transcription/bioprojects/termite_PRJNA309979/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/termite_PRJNA309979/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FF3B96-8EA9-3249-8A7A-A53464F7DDFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C40851-E122-7645-9F9F-6FA12F7B2787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3860" windowWidth="26440" windowHeight="15440"/>
+    <workbookView xWindow="2660" yWindow="3860" windowWidth="30560" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SraRunTable" sheetId="1" r:id="rId1"/>
+    <sheet name="rna_treats" sheetId="3" r:id="rId2"/>
+    <sheet name="bisulfite_treats" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="207">
   <si>
     <t>Assay_Type</t>
   </si>
@@ -577,32 +579,77 @@
     <t>Znev_rAF1</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>treated</t>
   </si>
   <si>
-    <t>larva</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
-    <t>adult</t>
+    <t>run</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treatInfo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>SRR3139752_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>larva1</t>
+  </si>
+  <si>
+    <t>SRR3139751_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>larva2</t>
+  </si>
+  <si>
+    <t>SRR3139750_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>larva3</t>
+  </si>
+  <si>
+    <t>SRR3139749_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>larva4</t>
+  </si>
+  <si>
+    <t>SRR3139748_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>adult1</t>
+  </si>
+  <si>
+    <t>SRR3139747_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>adult2</t>
+  </si>
+  <si>
+    <t>SRR3139746_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>adult3</t>
+  </si>
+  <si>
+    <t>SRR3139745_1.trim_bismark_bt2_pe.deduplicated.bismark.cov</t>
+  </si>
+  <si>
+    <t>adult4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,6 +780,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1079,9 +1133,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1436,10 +1491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3879,150 +3936,314 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" t="s">
-        <v>188</v>
-      </c>
-      <c r="J35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" t="s">
-        <v>188</v>
-      </c>
-      <c r="J36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H42" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" t="s">
-        <v>190</v>
-      </c>
-      <c r="J43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H45" t="s">
-        <v>182</v>
-      </c>
-      <c r="I45" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" t="s">
-        <v>191</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F119A5D0-FEC9-A14A-B749-029271FDE3EC}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0BDA4C-CE80-1442-86D7-C18406E9D62B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>